--- a/data/112/BOE/IRBY/Official Bank Rate - M.xlsx
+++ b/data/112/BOE/IRBY/Official Bank Rate - M.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C570"/>
+  <dimension ref="A1:C571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,37 +415,37 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 22</t>
+          <t>31 Mar 22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.475</v>
+        <v>0.6196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 22</t>
+          <t>28 Feb 22</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>0.475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 21</t>
+          <t>31 Jan 22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1714</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="n">
         <v>0.25</v>
@@ -454,20 +454,20 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 21</t>
+          <t>31 Dec 21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1</v>
+        <v>0.1714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 21</t>
+          <t>30 Nov 21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -480,7 +480,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 21</t>
+          <t>31 Oct 21</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -493,7 +493,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 21</t>
+          <t>30 Sep 21</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -506,7 +506,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 21</t>
+          <t>31 Aug 21</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -519,7 +519,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 21</t>
+          <t>31 Jul 21</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -532,7 +532,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>31 May 21</t>
+          <t>30 Jun 21</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -545,7 +545,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 21</t>
+          <t>31 May 21</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -558,7 +558,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 21</t>
+          <t>30 Apr 21</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -571,7 +571,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 21</t>
+          <t>31 Mar 21</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -584,7 +584,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 21</t>
+          <t>28 Feb 21</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -597,7 +597,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 20</t>
+          <t>31 Jan 21</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -610,7 +610,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 20</t>
+          <t>31 Dec 20</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -623,7 +623,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 20</t>
+          <t>30 Nov 20</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -636,7 +636,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 20</t>
+          <t>31 Oct 20</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -649,7 +649,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 20</t>
+          <t>30 Sep 20</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -662,7 +662,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 20</t>
+          <t>31 Aug 20</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -675,7 +675,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 20</t>
+          <t>31 Jul 20</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>31 May 20</t>
+          <t>30 Jun 20</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -701,7 +701,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 20</t>
+          <t>31 May 20</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -714,11 +714,11 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 20</t>
+          <t>30 Apr 20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3477</v>
+        <v>0.1</v>
       </c>
       <c r="C28" t="n">
         <v>0.1</v>
@@ -727,20 +727,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 20</t>
+          <t>31 Mar 20</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.75</v>
+        <v>0.3477</v>
       </c>
       <c r="C29" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 20</t>
+          <t>29 Feb 20</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -753,7 +753,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 19</t>
+          <t>31 Jan 20</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -766,7 +766,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 19</t>
+          <t>31 Dec 19</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -779,7 +779,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 19</t>
+          <t>30 Nov 19</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -792,7 +792,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 19</t>
+          <t>31 Oct 19</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -805,7 +805,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 19</t>
+          <t>30 Sep 19</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -818,7 +818,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 19</t>
+          <t>31 Aug 19</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -831,7 +831,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 19</t>
+          <t>31 Jul 19</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -844,7 +844,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>31 May 19</t>
+          <t>30 Jun 19</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -857,7 +857,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 19</t>
+          <t>31 May 19</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -870,7 +870,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 19</t>
+          <t>30 Apr 19</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -883,7 +883,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 19</t>
+          <t>31 Mar 19</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -896,7 +896,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 19</t>
+          <t>28 Feb 19</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -909,7 +909,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 18</t>
+          <t>31 Jan 19</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -922,7 +922,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 18</t>
+          <t>31 Dec 18</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -935,7 +935,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 18</t>
+          <t>30 Nov 18</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -948,7 +948,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 18</t>
+          <t>31 Oct 18</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -961,11 +961,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 18</t>
+          <t>30 Sep 18</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7386</v>
+        <v>0.75</v>
       </c>
       <c r="C47" t="n">
         <v>0.75</v>
@@ -974,20 +974,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 18</t>
+          <t>31 Aug 18</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5</v>
+        <v>0.7386</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 18</t>
+          <t>31 Jul 18</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1000,7 +1000,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>31 May 18</t>
+          <t>30 Jun 18</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1013,7 +1013,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 18</t>
+          <t>31 May 18</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1026,7 +1026,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 18</t>
+          <t>30 Apr 18</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1039,7 +1039,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 18</t>
+          <t>31 Mar 18</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1052,7 +1052,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 18</t>
+          <t>28 Feb 18</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1065,7 +1065,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 17</t>
+          <t>31 Jan 18</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1078,11 +1078,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 17</t>
+          <t>31 Dec 17</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4886</v>
+        <v>0.5</v>
       </c>
       <c r="C56" t="n">
         <v>0.5</v>
@@ -1091,20 +1091,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 17</t>
+          <t>30 Nov 17</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.25</v>
+        <v>0.4886</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 17</t>
+          <t>31 Oct 17</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1117,7 +1117,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 17</t>
+          <t>30 Sep 17</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1130,7 +1130,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 17</t>
+          <t>31 Aug 17</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1143,7 +1143,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 17</t>
+          <t>31 Jul 17</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>31 May 17</t>
+          <t>30 Jun 17</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1169,7 +1169,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 17</t>
+          <t>31 May 17</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1182,7 +1182,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 17</t>
+          <t>30 Apr 17</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1195,7 +1195,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 17</t>
+          <t>31 Mar 17</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1208,7 +1208,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 17</t>
+          <t>28 Feb 17</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1221,7 +1221,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 16</t>
+          <t>31 Jan 17</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1234,7 +1234,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 16</t>
+          <t>31 Dec 16</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1247,7 +1247,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 16</t>
+          <t>30 Nov 16</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1260,7 +1260,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 16</t>
+          <t>31 Oct 16</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1273,11 +1273,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 16</t>
+          <t>30 Sep 16</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2841</v>
+        <v>0.25</v>
       </c>
       <c r="C71" t="n">
         <v>0.25</v>
@@ -1286,20 +1286,20 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 16</t>
+          <t>31 Aug 16</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.5</v>
+        <v>0.2841</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 16</t>
+          <t>31 Jul 16</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>31 May 16</t>
+          <t>30 Jun 16</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1325,7 +1325,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 16</t>
+          <t>31 May 16</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1338,7 +1338,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 16</t>
+          <t>30 Apr 16</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1351,7 +1351,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 16</t>
+          <t>31 Mar 16</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1364,7 +1364,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 16</t>
+          <t>29 Feb 16</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1377,7 +1377,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 15</t>
+          <t>31 Jan 16</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1390,7 +1390,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 15</t>
+          <t>31 Dec 15</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1403,7 +1403,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 15</t>
+          <t>30 Nov 15</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1416,7 +1416,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 15</t>
+          <t>31 Oct 15</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1429,7 +1429,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 15</t>
+          <t>30 Sep 15</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1442,7 +1442,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 15</t>
+          <t>31 Aug 15</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1455,7 +1455,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 15</t>
+          <t>31 Jul 15</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1468,7 +1468,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>31 May 15</t>
+          <t>30 Jun 15</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1481,7 +1481,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 15</t>
+          <t>31 May 15</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1494,7 +1494,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 15</t>
+          <t>30 Apr 15</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1507,7 +1507,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 15</t>
+          <t>31 Mar 15</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1520,7 +1520,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 15</t>
+          <t>28 Feb 15</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1533,7 +1533,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 14</t>
+          <t>31 Jan 15</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1546,7 +1546,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 14</t>
+          <t>31 Dec 14</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1559,7 +1559,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 14</t>
+          <t>30 Nov 14</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1572,7 +1572,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 14</t>
+          <t>31 Oct 14</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1585,7 +1585,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 14</t>
+          <t>30 Sep 14</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1598,7 +1598,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 14</t>
+          <t>31 Aug 14</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1611,7 +1611,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 14</t>
+          <t>31 Jul 14</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1624,7 +1624,7 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>31 May 14</t>
+          <t>30 Jun 14</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1637,7 +1637,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 14</t>
+          <t>31 May 14</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1650,7 +1650,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 14</t>
+          <t>30 Apr 14</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1663,7 +1663,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 14</t>
+          <t>31 Mar 14</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1676,7 +1676,7 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 14</t>
+          <t>28 Feb 14</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1689,7 +1689,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 13</t>
+          <t>31 Jan 14</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1702,7 +1702,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 13</t>
+          <t>31 Dec 13</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1715,7 +1715,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 13</t>
+          <t>30 Nov 13</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1728,7 +1728,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 13</t>
+          <t>31 Oct 13</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1741,7 +1741,7 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 13</t>
+          <t>30 Sep 13</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1754,7 +1754,7 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 13</t>
+          <t>31 Aug 13</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1767,7 +1767,7 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 13</t>
+          <t>31 Jul 13</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1780,7 +1780,7 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>31 May 13</t>
+          <t>30 Jun 13</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1793,7 +1793,7 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 13</t>
+          <t>31 May 13</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1806,7 +1806,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 13</t>
+          <t>30 Apr 13</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1819,7 +1819,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 13</t>
+          <t>31 Mar 13</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1832,7 +1832,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 13</t>
+          <t>28 Feb 13</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1845,7 +1845,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 12</t>
+          <t>31 Jan 13</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1858,7 +1858,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 12</t>
+          <t>31 Dec 12</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1871,7 +1871,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 12</t>
+          <t>30 Nov 12</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1884,7 +1884,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 12</t>
+          <t>31 Oct 12</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1897,7 +1897,7 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 12</t>
+          <t>30 Sep 12</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1910,7 +1910,7 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 12</t>
+          <t>31 Aug 12</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1923,7 +1923,7 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 12</t>
+          <t>31 Jul 12</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1936,7 +1936,7 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>31 May 12</t>
+          <t>30 Jun 12</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1949,7 +1949,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 12</t>
+          <t>31 May 12</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1962,7 +1962,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 12</t>
+          <t>30 Apr 12</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1975,7 +1975,7 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 12</t>
+          <t>31 Mar 12</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1988,7 +1988,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 12</t>
+          <t>29 Feb 12</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2001,7 +2001,7 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 11</t>
+          <t>31 Jan 12</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2014,7 +2014,7 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 11</t>
+          <t>31 Dec 11</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2027,7 +2027,7 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 11</t>
+          <t>30 Nov 11</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2040,7 +2040,7 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 11</t>
+          <t>31 Oct 11</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2053,7 +2053,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 11</t>
+          <t>30 Sep 11</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2066,7 +2066,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 11</t>
+          <t>31 Aug 11</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2079,7 +2079,7 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 11</t>
+          <t>31 Jul 11</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2092,7 +2092,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>31 May 11</t>
+          <t>30 Jun 11</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2105,7 +2105,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 11</t>
+          <t>31 May 11</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2118,7 +2118,7 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 11</t>
+          <t>30 Apr 11</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2131,7 +2131,7 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 11</t>
+          <t>31 Mar 11</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2144,7 +2144,7 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 11</t>
+          <t>28 Feb 11</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2157,7 +2157,7 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 10</t>
+          <t>31 Jan 11</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2170,7 +2170,7 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 10</t>
+          <t>31 Dec 10</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2183,7 +2183,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 10</t>
+          <t>30 Nov 10</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2196,7 +2196,7 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 10</t>
+          <t>31 Oct 10</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2209,7 +2209,7 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 10</t>
+          <t>30 Sep 10</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2222,7 +2222,7 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 10</t>
+          <t>31 Aug 10</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2235,7 +2235,7 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 10</t>
+          <t>31 Jul 10</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2248,7 +2248,7 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>31 May 10</t>
+          <t>30 Jun 10</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2261,7 +2261,7 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 10</t>
+          <t>31 May 10</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2274,7 +2274,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 10</t>
+          <t>30 Apr 10</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2287,7 +2287,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 10</t>
+          <t>31 Mar 10</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2300,7 +2300,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 10</t>
+          <t>28 Feb 10</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2313,7 +2313,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 09</t>
+          <t>31 Jan 10</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2326,7 +2326,7 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 09</t>
+          <t>31 Dec 09</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2339,7 +2339,7 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 09</t>
+          <t>30 Nov 09</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2352,7 +2352,7 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 09</t>
+          <t>31 Oct 09</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2365,7 +2365,7 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 09</t>
+          <t>30 Sep 09</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2378,7 +2378,7 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 09</t>
+          <t>31 Aug 09</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2391,7 +2391,7 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 09</t>
+          <t>31 Jul 09</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2404,7 +2404,7 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>31 May 09</t>
+          <t>30 Jun 09</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2417,7 +2417,7 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 09</t>
+          <t>31 May 09</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2430,11 +2430,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 09</t>
+          <t>30 Apr 09</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5682</v>
+        <v>0.5</v>
       </c>
       <c r="C160" t="n">
         <v>0.5</v>
@@ -2443,85 +2443,85 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 09</t>
+          <t>31 Mar 09</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1.075</v>
+        <v>0.5682</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 09</t>
+          <t>28 Feb 09</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1.5952</v>
+        <v>1.075</v>
       </c>
       <c r="C162" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 08</t>
+          <t>31 Jan 09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2.1429</v>
+        <v>1.5952</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 08</t>
+          <t>31 Dec 08</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3.225</v>
+        <v>2.1429</v>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 08</t>
+          <t>30 Nov 08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4.6087</v>
+        <v>3.225</v>
       </c>
       <c r="C165" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 08</t>
+          <t>31 Oct 08</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>4.6087</v>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 08</t>
+          <t>30 Sep 08</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2534,7 +2534,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 08</t>
+          <t>31 Aug 08</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2547,7 +2547,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 08</t>
+          <t>31 Jul 08</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2560,7 +2560,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>31 May 08</t>
+          <t>30 Jun 08</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2573,11 +2573,11 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 08</t>
+          <t>31 May 08</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>5.0795</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
         <v>5</v>
@@ -2586,24 +2586,24 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 08</t>
+          <t>30 Apr 08</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>5.25</v>
+        <v>5.0795</v>
       </c>
       <c r="C172" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 08</t>
+          <t>31 Mar 08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>5.2976</v>
+        <v>5.25</v>
       </c>
       <c r="C173" t="n">
         <v>5.25</v>
@@ -2612,24 +2612,24 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 08</t>
+          <t>29 Feb 08</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5.5</v>
+        <v>5.2976</v>
       </c>
       <c r="C174" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 07</t>
+          <t>31 Jan 08</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5.5395</v>
+        <v>5.5</v>
       </c>
       <c r="C175" t="n">
         <v>5.5</v>
@@ -2638,20 +2638,20 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 07</t>
+          <t>31 Dec 07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5.75</v>
+        <v>5.5395</v>
       </c>
       <c r="C176" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 07</t>
+          <t>30 Nov 07</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2664,7 +2664,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 07</t>
+          <t>31 Oct 07</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2677,7 +2677,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 07</t>
+          <t>30 Sep 07</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2690,11 +2690,11 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 07</t>
+          <t>31 Aug 07</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>5.7159</v>
+        <v>5.75</v>
       </c>
       <c r="C180" t="n">
         <v>5.75</v>
@@ -2703,24 +2703,24 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 07</t>
+          <t>31 Jul 07</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5.5</v>
+        <v>5.7159</v>
       </c>
       <c r="C181" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>31 May 07</t>
+          <t>30 Jun 07</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>5.4286</v>
+        <v>5.5</v>
       </c>
       <c r="C182" t="n">
         <v>5.5</v>
@@ -2729,20 +2729,20 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 07</t>
+          <t>31 May 07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>5.25</v>
+        <v>5.4286</v>
       </c>
       <c r="C183" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 07</t>
+          <t>30 Apr 07</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2755,7 +2755,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 07</t>
+          <t>31 Mar 07</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2768,11 +2768,11 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 07</t>
+          <t>28 Feb 07</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5.1705</v>
+        <v>5.25</v>
       </c>
       <c r="C186" t="n">
         <v>5.25</v>
@@ -2781,24 +2781,24 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 06</t>
+          <t>31 Jan 07</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>5.1705</v>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 06</t>
+          <t>31 Dec 06</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4.9318</v>
+        <v>5</v>
       </c>
       <c r="C188" t="n">
         <v>5</v>
@@ -2807,20 +2807,20 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 06</t>
+          <t>30 Nov 06</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4.75</v>
+        <v>4.9318</v>
       </c>
       <c r="C189" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 06</t>
+          <t>31 Oct 06</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2833,11 +2833,11 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 06</t>
+          <t>30 Sep 06</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4.7273</v>
+        <v>4.75</v>
       </c>
       <c r="C191" t="n">
         <v>4.75</v>
@@ -2846,20 +2846,20 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 06</t>
+          <t>31 Aug 06</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.5</v>
+        <v>4.7273</v>
       </c>
       <c r="C192" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 06</t>
+          <t>31 Jul 06</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2872,7 +2872,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>31 May 06</t>
+          <t>30 Jun 06</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2885,7 +2885,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 06</t>
+          <t>31 May 06</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2898,7 +2898,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 06</t>
+          <t>30 Apr 06</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2911,7 +2911,7 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 06</t>
+          <t>31 Mar 06</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2924,7 +2924,7 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 06</t>
+          <t>28 Feb 06</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2937,7 +2937,7 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 05</t>
+          <t>31 Jan 06</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2950,7 +2950,7 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 05</t>
+          <t>31 Dec 05</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2963,7 +2963,7 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 05</t>
+          <t>30 Nov 05</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2976,7 +2976,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 05</t>
+          <t>31 Oct 05</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2989,11 +2989,11 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 05</t>
+          <t>30 Sep 05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.5341</v>
+        <v>4.5</v>
       </c>
       <c r="C203" t="n">
         <v>4.5</v>
@@ -3002,20 +3002,20 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 05</t>
+          <t>31 Aug 05</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4.75</v>
+        <v>4.5341</v>
       </c>
       <c r="C204" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 05</t>
+          <t>31 Jul 05</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3028,7 +3028,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>31 May 05</t>
+          <t>30 Jun 05</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3041,7 +3041,7 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 05</t>
+          <t>31 May 05</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3054,7 +3054,7 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 05</t>
+          <t>30 Apr 05</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3067,7 +3067,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 05</t>
+          <t>31 Mar 05</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3080,7 +3080,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 05</t>
+          <t>28 Feb 05</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3093,7 +3093,7 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 04</t>
+          <t>31 Jan 05</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3106,7 +3106,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 04</t>
+          <t>31 Dec 04</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3119,7 +3119,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 04</t>
+          <t>30 Nov 04</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3132,7 +3132,7 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 04</t>
+          <t>31 Oct 04</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3145,11 +3145,11 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 04</t>
+          <t>30 Sep 04</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4.7143</v>
+        <v>4.75</v>
       </c>
       <c r="C215" t="n">
         <v>4.75</v>
@@ -3158,24 +3158,24 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 04</t>
+          <t>31 Aug 04</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4.5</v>
+        <v>4.7143</v>
       </c>
       <c r="C216" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 04</t>
+          <t>31 Jul 04</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4.4205</v>
+        <v>4.5</v>
       </c>
       <c r="C217" t="n">
         <v>4.5</v>
@@ -3184,33 +3184,33 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>31 May 04</t>
+          <t>30 Jun 04</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4.2237</v>
+        <v>4.4205</v>
       </c>
       <c r="C218" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 04</t>
+          <t>31 May 04</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>4.2237</v>
       </c>
       <c r="C219" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 04</t>
+          <t>30 Apr 04</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3223,11 +3223,11 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 04</t>
+          <t>31 Mar 04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3.9625</v>
+        <v>4</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
@@ -3236,20 +3236,20 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 04</t>
+          <t>29 Feb 04</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3.75</v>
+        <v>3.9625</v>
       </c>
       <c r="C222" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 03</t>
+          <t>31 Jan 04</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3262,11 +3262,11 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 03</t>
+          <t>31 Dec 03</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3.7125</v>
+        <v>3.75</v>
       </c>
       <c r="C224" t="n">
         <v>3.75</v>
@@ -3275,20 +3275,20 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 03</t>
+          <t>30 Nov 03</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>3.5</v>
+        <v>3.7125</v>
       </c>
       <c r="C225" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 03</t>
+          <t>31 Oct 03</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3301,7 +3301,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 03</t>
+          <t>30 Sep 03</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3314,11 +3314,11 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 03</t>
+          <t>31 Aug 03</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.5761</v>
+        <v>3.5</v>
       </c>
       <c r="C228" t="n">
         <v>3.5</v>
@@ -3327,20 +3327,20 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 03</t>
+          <t>31 Jul 03</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3.75</v>
+        <v>3.5761</v>
       </c>
       <c r="C229" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>31 May 03</t>
+          <t>30 Jun 03</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3353,7 +3353,7 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 03</t>
+          <t>31 May 03</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3366,7 +3366,7 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 03</t>
+          <t>30 Apr 03</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3379,11 +3379,11 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 03</t>
+          <t>31 Mar 03</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3.7875</v>
+        <v>3.75</v>
       </c>
       <c r="C233" t="n">
         <v>3.75</v>
@@ -3392,20 +3392,20 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 03</t>
+          <t>28 Feb 03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>4</v>
+        <v>3.7875</v>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 02</t>
+          <t>31 Jan 03</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3418,7 +3418,7 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 02</t>
+          <t>31 Dec 02</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3431,7 +3431,7 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 02</t>
+          <t>30 Nov 02</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3444,7 +3444,7 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 02</t>
+          <t>31 Oct 02</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3457,7 +3457,7 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 02</t>
+          <t>30 Sep 02</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3470,7 +3470,7 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 02</t>
+          <t>31 Aug 02</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3483,7 +3483,7 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 02</t>
+          <t>31 Jul 02</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3496,7 +3496,7 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>31 May 02</t>
+          <t>30 Jun 02</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3509,7 +3509,7 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 02</t>
+          <t>31 May 02</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3522,7 +3522,7 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 02</t>
+          <t>30 Apr 02</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3535,7 +3535,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 02</t>
+          <t>31 Mar 02</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3548,7 +3548,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 02</t>
+          <t>28 Feb 02</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3561,7 +3561,7 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 01</t>
+          <t>31 Jan 02</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3574,11 +3574,11 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 01</t>
+          <t>31 Dec 01</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4.1136</v>
+        <v>4</v>
       </c>
       <c r="C248" t="n">
         <v>4</v>
@@ -3587,59 +3587,59 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 01</t>
+          <t>30 Nov 01</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4.5326</v>
+        <v>4.1136</v>
       </c>
       <c r="C249" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 01</t>
+          <t>31 Oct 01</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>4.8875</v>
+        <v>4.5326</v>
       </c>
       <c r="C250" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 01</t>
+          <t>30 Sep 01</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>5.0114</v>
+        <v>4.8875</v>
       </c>
       <c r="C251" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 01</t>
+          <t>31 Aug 01</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>5.25</v>
+        <v>5.0114</v>
       </c>
       <c r="C252" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 01</t>
+          <t>31 Jul 01</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3652,11 +3652,11 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>31 May 01</t>
+          <t>30 Jun 01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>5.3214</v>
+        <v>5.25</v>
       </c>
       <c r="C254" t="n">
         <v>5.25</v>
@@ -3665,37 +3665,37 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 01</t>
+          <t>31 May 01</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5.5395</v>
+        <v>5.3214</v>
       </c>
       <c r="C255" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 01</t>
+          <t>30 Apr 01</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>5.75</v>
+        <v>5.5395</v>
       </c>
       <c r="C256" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 01</t>
+          <t>31 Mar 01</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>5.8125</v>
+        <v>5.75</v>
       </c>
       <c r="C257" t="n">
         <v>5.75</v>
@@ -3704,20 +3704,20 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 01</t>
+          <t>28 Feb 01</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>6</v>
+        <v>5.8125</v>
       </c>
       <c r="C258" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 00</t>
+          <t>31 Jan 01</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3730,7 +3730,7 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 00</t>
+          <t>31 Dec 00</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3743,7 +3743,7 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 00</t>
+          <t>30 Nov 00</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3756,7 +3756,7 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 00</t>
+          <t>31 Oct 00</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3769,7 +3769,7 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 00</t>
+          <t>30 Sep 00</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3782,7 +3782,7 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 00</t>
+          <t>31 Aug 00</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3795,7 +3795,7 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 00</t>
+          <t>31 Jul 00</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3808,7 +3808,7 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>31 May 00</t>
+          <t>30 Jun 00</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3821,7 +3821,7 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 00</t>
+          <t>31 May 00</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3834,7 +3834,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 00</t>
+          <t>30 Apr 00</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3847,11 +3847,11 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 00</t>
+          <t>31 Mar 00</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>5.9167</v>
+        <v>6</v>
       </c>
       <c r="C269" t="n">
         <v>6</v>
@@ -3860,37 +3860,37 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 00</t>
+          <t>29 Feb 00</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>5.6625</v>
+        <v>5.9167</v>
       </c>
       <c r="C270" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 99</t>
+          <t>31 Jan 00</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>5.5</v>
+        <v>5.6625</v>
       </c>
       <c r="C271" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 99</t>
+          <t>31 Dec 99</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>5.4659</v>
+        <v>5.5</v>
       </c>
       <c r="C272" t="n">
         <v>5.5</v>
@@ -3899,24 +3899,24 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 99</t>
+          <t>30 Nov 99</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>5.25</v>
+        <v>5.4659</v>
       </c>
       <c r="C273" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 99</t>
+          <t>31 Oct 99</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>5.1932</v>
+        <v>5.25</v>
       </c>
       <c r="C274" t="n">
         <v>5.25</v>
@@ -3925,20 +3925,20 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 99</t>
+          <t>30 Sep 99</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>5</v>
+        <v>5.1932</v>
       </c>
       <c r="C275" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 99</t>
+          <t>31 Aug 99</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3951,11 +3951,11 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 99</t>
+          <t>31 Jul 99</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>5.0795</v>
+        <v>5</v>
       </c>
       <c r="C277" t="n">
         <v>5</v>
@@ -3964,24 +3964,24 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>31 May 99</t>
+          <t>30 Jun 99</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>5.25</v>
+        <v>5.0795</v>
       </c>
       <c r="C278" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 99</t>
+          <t>31 May 99</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>5.2875</v>
+        <v>5.25</v>
       </c>
       <c r="C279" t="n">
         <v>5.25</v>
@@ -3990,24 +3990,24 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 99</t>
+          <t>30 Apr 99</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5.5</v>
+        <v>5.2875</v>
       </c>
       <c r="C280" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 99</t>
+          <t>31 Mar 99</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>5.575</v>
+        <v>5.5</v>
       </c>
       <c r="C281" t="n">
         <v>5.5</v>
@@ -4016,72 +4016,72 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 99</t>
+          <t>28 Feb 99</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>6.0375</v>
+        <v>5.575</v>
       </c>
       <c r="C282" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 98</t>
+          <t>31 Jan 99</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>6.4167</v>
+        <v>6.0375</v>
       </c>
       <c r="C283" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 98</t>
+          <t>31 Dec 98</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>6.8214</v>
+        <v>6.4167</v>
       </c>
       <c r="C284" t="n">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 98</t>
+          <t>30 Nov 98</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>7.3068</v>
+        <v>6.8214</v>
       </c>
       <c r="C285" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 98</t>
+          <t>31 Oct 98</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>7.5</v>
+        <v>7.3068</v>
       </c>
       <c r="C286" t="n">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 98</t>
+          <t>30 Sep 98</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4094,7 +4094,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 98</t>
+          <t>31 Aug 98</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4107,11 +4107,11 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 98</t>
+          <t>31 Jul 98</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>7.4659</v>
+        <v>7.5</v>
       </c>
       <c r="C289" t="n">
         <v>7.5</v>
@@ -4120,20 +4120,20 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>31 May 98</t>
+          <t>30 Jun 98</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>7.25</v>
+        <v>7.4659</v>
       </c>
       <c r="C290" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 98</t>
+          <t>31 May 98</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4146,7 +4146,7 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 98</t>
+          <t>30 Apr 98</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4159,7 +4159,7 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 98</t>
+          <t>31 Mar 98</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4172,7 +4172,7 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 98</t>
+          <t>28 Feb 98</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4185,7 +4185,7 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 97</t>
+          <t>31 Jan 98</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4198,11 +4198,11 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 97</t>
+          <t>31 Dec 97</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>7.2125</v>
+        <v>7.25</v>
       </c>
       <c r="C296" t="n">
         <v>7.25</v>
@@ -4211,20 +4211,20 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 97</t>
+          <t>30 Nov 97</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>7</v>
+        <v>7.2125</v>
       </c>
       <c r="C297" t="n">
-        <v>7</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 97</t>
+          <t>31 Oct 97</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4237,11 +4237,11 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 97</t>
+          <t>30 Sep 97</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="C299" t="n">
         <v>7</v>
@@ -4250,59 +4250,59 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 97</t>
+          <t>31 Aug 97</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>6.6739</v>
+        <v>6.95</v>
       </c>
       <c r="C300" t="n">
-        <v>6.75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 97</t>
+          <t>31 Jul 97</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>6.4524</v>
+        <v>6.6739</v>
       </c>
       <c r="C301" t="n">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>31 May 97</t>
+          <t>30 Jun 97</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>6.2188</v>
+        <v>6.4524</v>
       </c>
       <c r="C302" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 97</t>
+          <t>31 May 97</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>5.9375</v>
+        <v>6.2188</v>
       </c>
       <c r="C303" t="n">
-        <v>5.9375</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 97</t>
+          <t>30 Apr 97</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4315,7 +4315,7 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 97</t>
+          <t>31 Mar 97</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4328,7 +4328,7 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 97</t>
+          <t>28 Feb 97</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4341,7 +4341,7 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 96</t>
+          <t>31 Jan 97</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4354,7 +4354,7 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 96</t>
+          <t>31 Dec 96</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4367,11 +4367,11 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 96</t>
+          <t>30 Nov 96</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>5.7092</v>
+        <v>5.9375</v>
       </c>
       <c r="C309" t="n">
         <v>5.9375</v>
@@ -4380,20 +4380,20 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 96</t>
+          <t>31 Oct 96</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>5.6875</v>
+        <v>5.7092</v>
       </c>
       <c r="C310" t="n">
-        <v>5.6875</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 96</t>
+          <t>30 Sep 96</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4406,7 +4406,7 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 96</t>
+          <t>31 Aug 96</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4419,11 +4419,11 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 96</t>
+          <t>31 Jul 96</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>5.725</v>
+        <v>5.6875</v>
       </c>
       <c r="C313" t="n">
         <v>5.6875</v>
@@ -4432,20 +4432,20 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>31 May 96</t>
+          <t>30 Jun 96</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>5.9375</v>
+        <v>5.725</v>
       </c>
       <c r="C314" t="n">
-        <v>5.9375</v>
+        <v>5.6875</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 96</t>
+          <t>31 May 96</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4458,11 +4458,11 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 96</t>
+          <t>30 Apr 96</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>5.9821</v>
+        <v>5.9375</v>
       </c>
       <c r="C316" t="n">
         <v>5.9375</v>
@@ -4471,24 +4471,24 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 96</t>
+          <t>31 Mar 96</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>6.125</v>
+        <v>5.9821</v>
       </c>
       <c r="C317" t="n">
-        <v>6.125</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 96</t>
+          <t>29 Feb 96</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>6.2614</v>
+        <v>6.125</v>
       </c>
       <c r="C318" t="n">
         <v>6.125</v>
@@ -4497,33 +4497,33 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 95</t>
+          <t>31 Jan 96</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>6.4803</v>
+        <v>6.2614</v>
       </c>
       <c r="C319" t="n">
-        <v>6.375</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 95</t>
+          <t>31 Dec 95</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>6.625</v>
+        <v>6.4803</v>
       </c>
       <c r="C320" t="n">
-        <v>6.625</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 95</t>
+          <t>30 Nov 95</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4536,7 +4536,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 95</t>
+          <t>31 Oct 95</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4549,7 +4549,7 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 95</t>
+          <t>30 Sep 95</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4562,7 +4562,7 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 95</t>
+          <t>31 Aug 95</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4575,7 +4575,7 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 95</t>
+          <t>31 Jul 95</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -4588,7 +4588,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>31 May 95</t>
+          <t>30 Jun 95</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4601,7 +4601,7 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 95</t>
+          <t>31 May 95</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4614,7 +4614,7 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 95</t>
+          <t>30 Apr 95</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4627,11 +4627,11 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 95</t>
+          <t>31 Mar 95</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>6.6</v>
+        <v>6.625</v>
       </c>
       <c r="C329" t="n">
         <v>6.625</v>
@@ -4640,24 +4640,24 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 95</t>
+          <t>28 Feb 95</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>6.125</v>
+        <v>6.6</v>
       </c>
       <c r="C330" t="n">
-        <v>6.125</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 94</t>
+          <t>31 Jan 95</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>6.025</v>
+        <v>6.125</v>
       </c>
       <c r="C331" t="n">
         <v>6.125</v>
@@ -4666,20 +4666,20 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 94</t>
+          <t>31 Dec 94</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>5.625</v>
+        <v>6.025</v>
       </c>
       <c r="C332" t="n">
-        <v>5.625</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 94</t>
+          <t>30 Nov 94</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4692,11 +4692,11 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 94</t>
+          <t>31 Oct 94</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>5.4659</v>
+        <v>5.625</v>
       </c>
       <c r="C334" t="n">
         <v>5.625</v>
@@ -4705,20 +4705,20 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 94</t>
+          <t>30 Sep 94</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>5.125</v>
+        <v>5.4659</v>
       </c>
       <c r="C335" t="n">
-        <v>5.125</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 94</t>
+          <t>31 Aug 94</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4731,7 +4731,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 94</t>
+          <t>31 Jul 94</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4744,7 +4744,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>31 May 94</t>
+          <t>30 Jun 94</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4757,7 +4757,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 94</t>
+          <t>31 May 94</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -4770,7 +4770,7 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 94</t>
+          <t>30 Apr 94</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4783,11 +4783,11 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 94</t>
+          <t>31 Mar 94</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>5.1875</v>
+        <v>5.125</v>
       </c>
       <c r="C341" t="n">
         <v>5.125</v>
@@ -4796,20 +4796,20 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 94</t>
+          <t>28 Feb 94</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>5.375</v>
+        <v>5.1875</v>
       </c>
       <c r="C342" t="n">
-        <v>5.375</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 93</t>
+          <t>31 Jan 94</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4822,11 +4822,11 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 93</t>
+          <t>31 Dec 93</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>5.7386</v>
+        <v>5.375</v>
       </c>
       <c r="C344" t="n">
         <v>5.375</v>
@@ -4835,20 +4835,20 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 93</t>
+          <t>30 Nov 93</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>5.875</v>
+        <v>5.7386</v>
       </c>
       <c r="C345" t="n">
-        <v>5.875</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 93</t>
+          <t>31 Oct 93</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4861,7 +4861,7 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 93</t>
+          <t>30 Sep 93</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4874,7 +4874,7 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 93</t>
+          <t>31 Aug 93</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4887,7 +4887,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 93</t>
+          <t>31 Jul 93</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4900,7 +4900,7 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>31 May 93</t>
+          <t>30 Jun 93</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4913,7 +4913,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 93</t>
+          <t>31 May 93</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -4926,7 +4926,7 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 93</t>
+          <t>30 Apr 93</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -4939,7 +4939,7 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 93</t>
+          <t>31 Mar 93</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -4952,11 +4952,11 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 93</t>
+          <t>28 Feb 93</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>6.675</v>
+        <v>5.875</v>
       </c>
       <c r="C354" t="n">
         <v>5.875</v>
@@ -4965,24 +4965,24 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 92</t>
+          <t>31 Jan 93</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>6.875</v>
+        <v>6.675</v>
       </c>
       <c r="C355" t="n">
-        <v>6.875</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 92</t>
+          <t>31 Dec 92</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>7.3036</v>
+        <v>6.875</v>
       </c>
       <c r="C356" t="n">
         <v>6.875</v>
@@ -4991,46 +4991,46 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 92</t>
+          <t>30 Nov 92</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>8.375</v>
+        <v>7.3036</v>
       </c>
       <c r="C357" t="n">
-        <v>7.875</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 92</t>
+          <t>31 Oct 92</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>9.556800000000001</v>
+        <v>8.375</v>
       </c>
       <c r="C358" t="n">
-        <v>8.875</v>
+        <v>7.875</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 92</t>
+          <t>30 Sep 92</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>9.875</v>
+        <v>9.556800000000001</v>
       </c>
       <c r="C359" t="n">
-        <v>9.875</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 92</t>
+          <t>31 Aug 92</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5043,7 +5043,7 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 92</t>
+          <t>31 Jul 92</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5056,11 +5056,11 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>31 May 92</t>
+          <t>30 Jun 92</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>9.901300000000001</v>
+        <v>9.875</v>
       </c>
       <c r="C362" t="n">
         <v>9.875</v>
@@ -5069,20 +5069,20 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 92</t>
+          <t>31 May 92</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>10.375</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="C363" t="n">
-        <v>10.375</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 92</t>
+          <t>30 Apr 92</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5095,7 +5095,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 92</t>
+          <t>31 Mar 92</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5108,7 +5108,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 92</t>
+          <t>29 Feb 92</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5121,7 +5121,7 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 91</t>
+          <t>31 Jan 92</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5134,7 +5134,7 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 91</t>
+          <t>31 Dec 91</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5147,7 +5147,7 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 91</t>
+          <t>30 Nov 91</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5160,11 +5160,11 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 91</t>
+          <t>31 Oct 91</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>10.4226</v>
+        <v>10.375</v>
       </c>
       <c r="C370" t="n">
         <v>10.375</v>
@@ -5173,24 +5173,24 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 91</t>
+          <t>30 Sep 91</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>10.875</v>
+        <v>10.4226</v>
       </c>
       <c r="C371" t="n">
-        <v>10.875</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 91</t>
+          <t>31 Aug 91</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>11.0707</v>
+        <v>10.875</v>
       </c>
       <c r="C372" t="n">
         <v>10.875</v>
@@ -5199,24 +5199,24 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 91</t>
+          <t>31 Jul 91</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>11.375</v>
+        <v>11.0707</v>
       </c>
       <c r="C373" t="n">
-        <v>11.375</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>31 May 91</t>
+          <t>30 Jun 91</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>11.756</v>
+        <v>11.375</v>
       </c>
       <c r="C374" t="n">
         <v>11.375</v>
@@ -5225,59 +5225,59 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 91</t>
+          <t>31 May 91</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>12.0655</v>
+        <v>11.756</v>
       </c>
       <c r="C375" t="n">
-        <v>11.875</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 91</t>
+          <t>30 Apr 91</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>12.75</v>
+        <v>12.0655</v>
       </c>
       <c r="C376" t="n">
-        <v>12.375</v>
+        <v>11.875</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 91</t>
+          <t>31 Mar 91</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>13.525</v>
+        <v>12.75</v>
       </c>
       <c r="C377" t="n">
-        <v>12.875</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 91</t>
+          <t>28 Feb 91</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>13.875</v>
+        <v>13.525</v>
       </c>
       <c r="C378" t="n">
-        <v>13.875</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 90</t>
+          <t>31 Jan 91</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -5290,7 +5290,7 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 90</t>
+          <t>31 Dec 90</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5303,11 +5303,11 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 90</t>
+          <t>30 Nov 90</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>14.0924</v>
+        <v>13.875</v>
       </c>
       <c r="C381" t="n">
         <v>13.875</v>
@@ -5316,20 +5316,20 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 90</t>
+          <t>31 Oct 90</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>14.875</v>
+        <v>14.0924</v>
       </c>
       <c r="C382" t="n">
-        <v>14.875</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 90</t>
+          <t>30 Sep 90</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5342,7 +5342,7 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 90</t>
+          <t>31 Aug 90</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5355,7 +5355,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 90</t>
+          <t>31 Jul 90</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5368,7 +5368,7 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>31 May 90</t>
+          <t>30 Jun 90</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5381,7 +5381,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 90</t>
+          <t>31 May 90</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5394,7 +5394,7 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 90</t>
+          <t>30 Apr 90</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5407,7 +5407,7 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 90</t>
+          <t>31 Mar 90</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5420,7 +5420,7 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 90</t>
+          <t>28 Feb 90</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5433,7 +5433,7 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 89</t>
+          <t>31 Jan 90</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5446,7 +5446,7 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 89</t>
+          <t>31 Dec 89</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5459,11 +5459,11 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 89</t>
+          <t>30 Nov 89</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>14.6705</v>
+        <v>14.875</v>
       </c>
       <c r="C393" t="n">
         <v>14.875</v>
@@ -5472,46 +5472,46 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 89</t>
+          <t>31 Oct 89</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>13.7783</v>
+        <v>14.6705</v>
       </c>
       <c r="C394" t="n">
-        <v>13.75</v>
+        <v>14.875</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 89</t>
+          <t>30 Sep 89</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>13.7543</v>
+        <v>13.7783</v>
       </c>
       <c r="C395" t="n">
-        <v>13.8438</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 89</t>
+          <t>31 Aug 89</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>13.75</v>
+        <v>13.7543</v>
       </c>
       <c r="C396" t="n">
-        <v>13.75</v>
+        <v>13.8438</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 89</t>
+          <t>31 Jul 89</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5524,11 +5524,11 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>31 May 89</t>
+          <t>30 Jun 89</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>13.0417</v>
+        <v>13.75</v>
       </c>
       <c r="C398" t="n">
         <v>13.75</v>
@@ -5537,20 +5537,20 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 89</t>
+          <t>31 May 89</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>12.875</v>
+        <v>13.0417</v>
       </c>
       <c r="C399" t="n">
-        <v>12.875</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 89</t>
+          <t>30 Apr 89</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5563,7 +5563,7 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 89</t>
+          <t>31 Mar 89</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5576,7 +5576,7 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 89</t>
+          <t>28 Feb 89</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5589,7 +5589,7 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 88</t>
+          <t>31 Jan 89</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5602,11 +5602,11 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 88</t>
+          <t>31 Dec 88</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>12.0568</v>
+        <v>12.875</v>
       </c>
       <c r="C404" t="n">
         <v>12.875</v>
@@ -5615,20 +5615,20 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 88</t>
+          <t>30 Nov 88</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>11.875</v>
+        <v>12.0568</v>
       </c>
       <c r="C405" t="n">
-        <v>11.875</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 88</t>
+          <t>31 Oct 88</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5641,11 +5641,11 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 88</t>
+          <t>30 Sep 88</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>10.9432</v>
+        <v>11.875</v>
       </c>
       <c r="C407" t="n">
         <v>11.875</v>
@@ -5654,102 +5654,102 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 88</t>
+          <t>31 Aug 88</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>9.8512</v>
+        <v>10.9432</v>
       </c>
       <c r="C408" t="n">
-        <v>10.375</v>
+        <v>11.875</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 88</t>
+          <t>31 Jul 88</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>8.2841</v>
+        <v>9.8512</v>
       </c>
       <c r="C409" t="n">
-        <v>8.875</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>31 May 88</t>
+          <t>30 Jun 88</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>7.625</v>
+        <v>8.2841</v>
       </c>
       <c r="C410" t="n">
-        <v>7.375</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 88</t>
+          <t>31 May 88</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>7.9539</v>
+        <v>7.625</v>
       </c>
       <c r="C411" t="n">
-        <v>7.875</v>
+        <v>7.375</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 88</t>
+          <t>30 Apr 88</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>8.635899999999999</v>
+        <v>7.9539</v>
       </c>
       <c r="C412" t="n">
-        <v>8.375</v>
+        <v>7.875</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 88</t>
+          <t>31 Mar 88</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>8.875</v>
+        <v>8.635899999999999</v>
       </c>
       <c r="C413" t="n">
-        <v>8.875</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 88</t>
+          <t>29 Feb 88</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>8.375</v>
+        <v>8.875</v>
       </c>
       <c r="C414" t="n">
-        <v>8.375</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 87</t>
+          <t>31 Jan 88</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>8.422599999999999</v>
+        <v>8.375</v>
       </c>
       <c r="C415" t="n">
         <v>8.375</v>
@@ -5758,50 +5758,50 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 87</t>
+          <t>31 Dec 87</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>8.922599999999999</v>
+        <v>8.422599999999999</v>
       </c>
       <c r="C416" t="n">
-        <v>8.875</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 87</t>
+          <t>30 Nov 87</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>9.7386</v>
+        <v>8.922599999999999</v>
       </c>
       <c r="C417" t="n">
-        <v>9.375</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 87</t>
+          <t>31 Oct 87</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>9.875</v>
+        <v>9.7386</v>
       </c>
       <c r="C418" t="n">
-        <v>9.875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 87</t>
+          <t>30 Sep 87</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>9.725</v>
+        <v>9.875</v>
       </c>
       <c r="C419" t="n">
         <v>9.875</v>
@@ -5810,20 +5810,20 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 87</t>
+          <t>31 Aug 87</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>8.875</v>
+        <v>9.725</v>
       </c>
       <c r="C420" t="n">
-        <v>8.875</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 87</t>
+          <t>31 Jul 87</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5836,11 +5836,11 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>31 May 87</t>
+          <t>30 Jun 87</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>8.9803</v>
+        <v>8.875</v>
       </c>
       <c r="C422" t="n">
         <v>8.875</v>
@@ -5849,46 +5849,46 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 87</t>
+          <t>31 May 87</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>9.800000000000001</v>
+        <v>8.9803</v>
       </c>
       <c r="C423" t="n">
-        <v>9.375</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 87</t>
+          <t>30 Apr 87</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>10.2614</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C424" t="n">
-        <v>9.875</v>
+        <v>9.375</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 87</t>
+          <t>31 Mar 87</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>10.875</v>
+        <v>10.2614</v>
       </c>
       <c r="C425" t="n">
-        <v>10.875</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 87</t>
+          <t>28 Feb 87</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5901,7 +5901,7 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 86</t>
+          <t>31 Jan 87</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5914,7 +5914,7 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 86</t>
+          <t>31 Dec 86</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -5927,11 +5927,11 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 86</t>
+          <t>30 Nov 86</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>10.4402</v>
+        <v>10.875</v>
       </c>
       <c r="C429" t="n">
         <v>10.875</v>
@@ -5940,20 +5940,20 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 86</t>
+          <t>31 Oct 86</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>9.875</v>
+        <v>10.4402</v>
       </c>
       <c r="C430" t="n">
-        <v>9.875</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 86</t>
+          <t>30 Sep 86</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -5966,7 +5966,7 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 86</t>
+          <t>31 Aug 86</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -5979,7 +5979,7 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 86</t>
+          <t>31 Jul 86</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -5992,11 +5992,11 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>31 May 86</t>
+          <t>30 Jun 86</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>10.25</v>
+        <v>9.875</v>
       </c>
       <c r="C434" t="n">
         <v>9.875</v>
@@ -6005,50 +6005,50 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 86</t>
+          <t>31 May 86</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>10.8523</v>
+        <v>10.25</v>
       </c>
       <c r="C435" t="n">
-        <v>10.375</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 86</t>
+          <t>30 Apr 86</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>12.0066</v>
+        <v>10.8523</v>
       </c>
       <c r="C436" t="n">
-        <v>11.375</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 86</t>
+          <t>31 Mar 86</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>12.375</v>
+        <v>12.0066</v>
       </c>
       <c r="C437" t="n">
-        <v>12.375</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 86</t>
+          <t>28 Feb 86</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>11.9659</v>
+        <v>12.375</v>
       </c>
       <c r="C438" t="n">
         <v>12.375</v>
@@ -6057,20 +6057,20 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 85</t>
+          <t>31 Jan 86</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>11.375</v>
+        <v>11.9659</v>
       </c>
       <c r="C439" t="n">
-        <v>11.375</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 85</t>
+          <t>31 Dec 85</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6083,7 +6083,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 85</t>
+          <t>30 Nov 85</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6096,7 +6096,7 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 85</t>
+          <t>31 Oct 85</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6109,7 +6109,7 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 85</t>
+          <t>30 Sep 85</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6122,11 +6122,11 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 85</t>
+          <t>31 Aug 85</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>11.962</v>
+        <v>11.375</v>
       </c>
       <c r="C444" t="n">
         <v>11.375</v>
@@ -6135,20 +6135,20 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 85</t>
+          <t>31 Jul 85</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>12.375</v>
+        <v>11.962</v>
       </c>
       <c r="C445" t="n">
-        <v>12.375</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>31 May 85</t>
+          <t>30 Jun 85</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6161,11 +6161,11 @@
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 85</t>
+          <t>31 May 85</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>12.675</v>
+        <v>12.375</v>
       </c>
       <c r="C447" t="n">
         <v>12.375</v>
@@ -6174,37 +6174,37 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 85</t>
+          <t>30 Apr 85</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>13.6369</v>
+        <v>12.675</v>
       </c>
       <c r="C448" t="n">
-        <v>12.875</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 85</t>
+          <t>31 Mar 85</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>13.875</v>
+        <v>13.6369</v>
       </c>
       <c r="C449" t="n">
-        <v>13.875</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 85</t>
+          <t>28 Feb 85</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>11.375</v>
+        <v>13.875</v>
       </c>
       <c r="C450" t="n">
         <v>13.875</v>
@@ -6213,24 +6213,24 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 84</t>
+          <t>31 Jan 85</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>9.5</v>
+        <v>11.375</v>
       </c>
       <c r="C451" t="n">
-        <v>9.5</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 84</t>
+          <t>31 Dec 84</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>9.8636</v>
+        <v>9.5</v>
       </c>
       <c r="C452" t="n">
         <v>9.5</v>
@@ -6239,20 +6239,20 @@
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 84</t>
+          <t>30 Nov 84</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>10.5</v>
+        <v>9.8636</v>
       </c>
       <c r="C453" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 84</t>
+          <t>31 Oct 84</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6265,11 +6265,11 @@
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 84</t>
+          <t>30 Sep 84</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>11.0114</v>
+        <v>10.5</v>
       </c>
       <c r="C455" t="n">
         <v>10.5</v>
@@ -6278,63 +6278,63 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 84</t>
+          <t>31 Aug 84</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>11.1591</v>
+        <v>11.0114</v>
       </c>
       <c r="C456" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 84</t>
+          <t>31 Jul 84</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>9.053599999999999</v>
+        <v>11.1591</v>
       </c>
       <c r="C457" t="n">
-        <v>8.875</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>31 May 84</t>
+          <t>30 Jun 84</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>8.919600000000001</v>
+        <v>9.053599999999999</v>
       </c>
       <c r="C458" t="n">
-        <v>9.0625</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 84</t>
+          <t>31 May 84</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>8.5625</v>
+        <v>8.919600000000001</v>
       </c>
       <c r="C459" t="n">
-        <v>8.5625</v>
+        <v>9.0625</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 84</t>
+          <t>30 Apr 84</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>8.7102</v>
+        <v>8.5625</v>
       </c>
       <c r="C460" t="n">
         <v>8.5625</v>
@@ -6343,20 +6343,20 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 84</t>
+          <t>31 Mar 84</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>9.0625</v>
+        <v>8.7102</v>
       </c>
       <c r="C461" t="n">
-        <v>9.0625</v>
+        <v>8.5625</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 84</t>
+          <t>29 Feb 84</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6369,7 +6369,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 83</t>
+          <t>31 Jan 84</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6382,7 +6382,7 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 83</t>
+          <t>31 Dec 83</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6395,7 +6395,7 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 83</t>
+          <t>30 Nov 83</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6408,24 +6408,24 @@
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 83</t>
+          <t>31 Oct 83</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>9.5625</v>
+        <v>9.0625</v>
       </c>
       <c r="C466" t="n">
-        <v>9.5625</v>
+        <v>9.0625</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 83</t>
+          <t>30 Sep 83</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>9.556800000000001</v>
+        <v>9.5625</v>
       </c>
       <c r="C467" t="n">
         <v>9.5625</v>
@@ -6434,11 +6434,11 @@
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 83</t>
+          <t>31 Aug 83</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>9.5625</v>
+        <v>9.556800000000001</v>
       </c>
       <c r="C468" t="n">
         <v>9.5625</v>
@@ -6447,11 +6447,11 @@
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 83</t>
+          <t>31 Jul 83</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>9.755699999999999</v>
+        <v>9.5625</v>
       </c>
       <c r="C469" t="n">
         <v>9.5625</v>
@@ -6460,24 +6460,24 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>31 May 83</t>
+          <t>30 Jun 83</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>10.0625</v>
+        <v>9.755699999999999</v>
       </c>
       <c r="C470" t="n">
-        <v>10.0625</v>
+        <v>9.5625</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 83</t>
+          <t>31 May 83</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>10.2336</v>
+        <v>10.0625</v>
       </c>
       <c r="C471" t="n">
         <v>10.0625</v>
@@ -6486,37 +6486,37 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 83</t>
+          <t>30 Apr 83</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>10.7527</v>
+        <v>10.2336</v>
       </c>
       <c r="C472" t="n">
-        <v>10.5625</v>
+        <v>10.0625</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 83</t>
+          <t>31 Mar 83</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>11</v>
+        <v>10.7527</v>
       </c>
       <c r="C473" t="n">
-        <v>11</v>
+        <v>10.5625</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 83</t>
+          <t>28 Feb 83</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="C474" t="n">
         <v>11</v>
@@ -6525,24 +6525,24 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 82</t>
+          <t>31 Jan 83</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>10</v>
+        <v>10.7</v>
       </c>
       <c r="C475" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 82</t>
+          <t>31 Dec 82</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>9.255699999999999</v>
+        <v>10</v>
       </c>
       <c r="C476" t="n">
         <v>10</v>
@@ -6551,89 +6551,89 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 82</t>
+          <t>30 Nov 82</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>9.791700000000001</v>
+        <v>9.255699999999999</v>
       </c>
       <c r="C477" t="n">
-        <v>9.625</v>
+        <v>10</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 82</t>
+          <t>31 Oct 82</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>10.5682</v>
+        <v>9.791700000000001</v>
       </c>
       <c r="C478" t="n">
-        <v>10.125</v>
+        <v>9.625</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 82</t>
+          <t>30 Sep 82</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>11.2857</v>
+        <v>10.5682</v>
       </c>
       <c r="C479" t="n">
-        <v>10.625</v>
+        <v>10.125</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 82</t>
+          <t>31 Aug 82</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>12.2045</v>
+        <v>11.2857</v>
       </c>
       <c r="C480" t="n">
-        <v>11.625</v>
+        <v>10.625</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 82</t>
+          <t>31 Jul 82</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>12.7386</v>
+        <v>12.2045</v>
       </c>
       <c r="C481" t="n">
-        <v>12.625</v>
+        <v>11.625</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>31 May 82</t>
+          <t>30 Jun 82</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>13.125</v>
+        <v>12.7386</v>
       </c>
       <c r="C482" t="n">
-        <v>13.125</v>
+        <v>12.625</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 82</t>
+          <t>31 May 82</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>13.175</v>
+        <v>13.125</v>
       </c>
       <c r="C483" t="n">
         <v>13.125</v>
@@ -6642,124 +6642,124 @@
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 82</t>
+          <t>30 Apr 82</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>13.3641</v>
+        <v>13.175</v>
       </c>
       <c r="C484" t="n">
-        <v>13.25</v>
+        <v>13.125</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 82</t>
+          <t>31 Mar 82</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>13.8406</v>
+        <v>13.3641</v>
       </c>
       <c r="C485" t="n">
-        <v>13.625</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 82</t>
+          <t>28 Feb 82</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>14.1844</v>
+        <v>13.8406</v>
       </c>
       <c r="C486" t="n">
-        <v>13.875</v>
+        <v>13.625</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 81</t>
+          <t>31 Jan 82</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>14.4018</v>
+        <v>14.1844</v>
       </c>
       <c r="C487" t="n">
-        <v>14.375</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 81</t>
+          <t>31 Dec 81</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>14.7292</v>
+        <v>14.4018</v>
       </c>
       <c r="C488" t="n">
-        <v>14.5625</v>
+        <v>14.375</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 81</t>
+          <t>30 Nov 81</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>14.6989</v>
+        <v>14.7292</v>
       </c>
       <c r="C489" t="n">
-        <v>15.125</v>
+        <v>14.5625</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 81</t>
+          <t>31 Oct 81</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>13.4034</v>
+        <v>14.6989</v>
       </c>
       <c r="C490" t="n">
-        <v>14</v>
+        <v>15.125</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 81</t>
+          <t>30 Sep 81</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>12.1375</v>
+        <v>13.4034</v>
       </c>
       <c r="C491" t="n">
-        <v>12.6875</v>
+        <v>14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 81</t>
+          <t>31 Aug 81</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>12</v>
+        <v>12.1375</v>
       </c>
       <c r="C492" t="n">
-        <v>12</v>
+        <v>12.6875</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 81</t>
+          <t>31 Jul 81</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6772,7 +6772,7 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>31 May 81</t>
+          <t>30 Jun 81</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6785,7 +6785,7 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 81</t>
+          <t>31 May 81</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6798,11 +6798,11 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 81</t>
+          <t>30 Apr 81</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>12.6364</v>
+        <v>12</v>
       </c>
       <c r="C496" t="n">
         <v>12</v>
@@ -6811,20 +6811,20 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 81</t>
+          <t>31 Mar 81</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>14</v>
+        <v>12.6364</v>
       </c>
       <c r="C497" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 81</t>
+          <t>28 Feb 81</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6837,7 +6837,7 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 80</t>
+          <t>31 Jan 81</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6850,11 +6850,11 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 80</t>
+          <t>31 Dec 80</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>15.6</v>
+        <v>14</v>
       </c>
       <c r="C500" t="n">
         <v>14</v>
@@ -6863,20 +6863,20 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 80</t>
+          <t>30 Nov 80</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C501" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 80</t>
+          <t>31 Oct 80</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6889,7 +6889,7 @@
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 80</t>
+          <t>30 Sep 80</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -6902,11 +6902,11 @@
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 80</t>
+          <t>31 Aug 80</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>16.087</v>
+        <v>16</v>
       </c>
       <c r="C504" t="n">
         <v>16</v>
@@ -6915,20 +6915,20 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 80</t>
+          <t>31 Jul 80</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>17</v>
+        <v>16.087</v>
       </c>
       <c r="C505" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>31 May 80</t>
+          <t>30 Jun 80</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -6941,7 +6941,7 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 80</t>
+          <t>31 May 80</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -6954,7 +6954,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 80</t>
+          <t>30 Apr 80</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -6967,7 +6967,7 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 80</t>
+          <t>31 Mar 80</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -6980,7 +6980,7 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 80</t>
+          <t>29 Feb 80</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -6993,7 +6993,7 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 79</t>
+          <t>31 Jan 80</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7006,11 +7006,11 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 79</t>
+          <t>31 Dec 79</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>15.6364</v>
+        <v>17</v>
       </c>
       <c r="C512" t="n">
         <v>17</v>
@@ -7019,20 +7019,20 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 79</t>
+          <t>30 Nov 79</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>14</v>
+        <v>15.6364</v>
       </c>
       <c r="C513" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 79</t>
+          <t>31 Oct 79</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7045,7 +7045,7 @@
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 79</t>
+          <t>30 Sep 79</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7058,7 +7058,7 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 79</t>
+          <t>31 Aug 79</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7071,11 +7071,11 @@
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 79</t>
+          <t>31 Jul 79</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>13.2381</v>
+        <v>14</v>
       </c>
       <c r="C517" t="n">
         <v>14</v>
@@ -7084,24 +7084,24 @@
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
         <is>
-          <t>31 May 79</t>
+          <t>30 Jun 79</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>12</v>
+        <v>13.2381</v>
       </c>
       <c r="C518" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 79</t>
+          <t>31 May 79</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>12.1579</v>
+        <v>12</v>
       </c>
       <c r="C519" t="n">
         <v>12</v>
@@ -7110,46 +7110,46 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 79</t>
+          <t>30 Apr 79</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>13</v>
+        <v>12.1579</v>
       </c>
       <c r="C520" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 79</t>
+          <t>31 Mar 79</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>13.625</v>
+        <v>13</v>
       </c>
       <c r="C521" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 79</t>
+          <t>28 Feb 79</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>12.5</v>
+        <v>13.625</v>
       </c>
       <c r="C522" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 78</t>
+          <t>31 Jan 79</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -7162,11 +7162,11 @@
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 78</t>
+          <t>31 Dec 78</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>11.8182</v>
+        <v>12.5</v>
       </c>
       <c r="C524" t="n">
         <v>12.5</v>
@@ -7175,20 +7175,20 @@
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 78</t>
+          <t>30 Nov 78</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>10</v>
+        <v>11.8182</v>
       </c>
       <c r="C525" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 78</t>
+          <t>31 Oct 78</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7201,7 +7201,7 @@
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 78</t>
+          <t>30 Sep 78</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7214,7 +7214,7 @@
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 78</t>
+          <t>31 Aug 78</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7227,11 +7227,11 @@
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 78</t>
+          <t>31 Jul 78</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>9.7727</v>
+        <v>10</v>
       </c>
       <c r="C529" t="n">
         <v>10</v>
@@ -7240,46 +7240,46 @@
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
         <is>
-          <t>31 May 78</t>
+          <t>30 Jun 78</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>8.6548</v>
+        <v>9.7727</v>
       </c>
       <c r="C530" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 78</t>
+          <t>31 May 78</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>7.15</v>
+        <v>8.6548</v>
       </c>
       <c r="C531" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 78</t>
+          <t>30 Apr 78</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>6.5</v>
+        <v>7.15</v>
       </c>
       <c r="C532" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 78</t>
+          <t>31 Mar 78</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7292,11 +7292,11 @@
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 78</t>
+          <t>28 Feb 78</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>6.5952</v>
+        <v>6.5</v>
       </c>
       <c r="C534" t="n">
         <v>6.5</v>
@@ -7305,24 +7305,24 @@
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 77</t>
+          <t>31 Jan 78</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>7</v>
+        <v>6.5952</v>
       </c>
       <c r="C535" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 77</t>
+          <t>31 Dec 77</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>5.2727</v>
+        <v>7</v>
       </c>
       <c r="C536" t="n">
         <v>7</v>
@@ -7331,59 +7331,59 @@
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 77</t>
+          <t>30 Nov 77</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>5.3571</v>
+        <v>5.2727</v>
       </c>
       <c r="C537" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 77</t>
+          <t>31 Oct 77</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>6.4318</v>
+        <v>5.3571</v>
       </c>
       <c r="C538" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 77</t>
+          <t>30 Sep 77</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>7.3409</v>
+        <v>6.4318</v>
       </c>
       <c r="C539" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 77</t>
+          <t>31 Aug 77</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>8</v>
+        <v>7.3409</v>
       </c>
       <c r="C540" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 77</t>
+          <t>31 Jul 77</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -7396,11 +7396,11 @@
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>31 May 77</t>
+          <t>30 Jun 77</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>8.119</v>
+        <v>8</v>
       </c>
       <c r="C542" t="n">
         <v>8</v>
@@ -7409,124 +7409,124 @@
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 77</t>
+          <t>31 May 77</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>9.118399999999999</v>
+        <v>8.119</v>
       </c>
       <c r="C543" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 77</t>
+          <t>30 Apr 77</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>11.0652</v>
+        <v>9.118399999999999</v>
       </c>
       <c r="C544" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 77</t>
+          <t>31 Mar 77</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>12.025</v>
+        <v>11.0652</v>
       </c>
       <c r="C545" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 77</t>
+          <t>28 Feb 77</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>13.775</v>
+        <v>12.025</v>
       </c>
       <c r="C546" t="n">
-        <v>12.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 76</t>
+          <t>31 Jan 77</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>14.619</v>
+        <v>13.775</v>
       </c>
       <c r="C547" t="n">
-        <v>14.25</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 76</t>
+          <t>31 Dec 76</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>14.9205</v>
+        <v>14.619</v>
       </c>
       <c r="C548" t="n">
-        <v>14.75</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 76</t>
+          <t>30 Nov 76</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>14.619</v>
+        <v>14.9205</v>
       </c>
       <c r="C549" t="n">
-        <v>15</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 76</t>
+          <t>31 Oct 76</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>12.4545</v>
+        <v>14.619</v>
       </c>
       <c r="C550" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 76</t>
+          <t>30 Sep 76</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>11.5</v>
+        <v>12.4545</v>
       </c>
       <c r="C551" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 76</t>
+          <t>31 Aug 76</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7539,7 +7539,7 @@
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 76</t>
+          <t>31 Jul 76</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7552,11 +7552,11 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>31 May 76</t>
+          <t>30 Jun 76</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="C554" t="n">
         <v>11.5</v>
@@ -7565,111 +7565,111 @@
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 76</t>
+          <t>31 May 76</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>9.375</v>
+        <v>10.75</v>
       </c>
       <c r="C555" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 76</t>
+          <t>30 Apr 76</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>9.0543</v>
+        <v>9.375</v>
       </c>
       <c r="C556" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>29 Feb 76</t>
+          <t>31 Mar 76</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>9.625</v>
+        <v>9.0543</v>
       </c>
       <c r="C557" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
         <is>
-          <t>31 Jan 76</t>
+          <t>29 Feb 76</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>10.8333</v>
+        <v>9.625</v>
       </c>
       <c r="C558" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 75</t>
+          <t>31 Jan 76</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>11.4643</v>
+        <v>10.8333</v>
       </c>
       <c r="C559" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>30 Nov 75</t>
+          <t>31 Dec 75</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>11.875</v>
+        <v>11.4643</v>
       </c>
       <c r="C560" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>31 Oct 75</t>
+          <t>30 Nov 75</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>11.8696</v>
+        <v>11.875</v>
       </c>
       <c r="C561" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 75</t>
+          <t>31 Oct 75</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>11</v>
+        <v>11.8696</v>
       </c>
       <c r="C562" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
         <is>
-          <t>31 Aug 75</t>
+          <t>30 Sep 75</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7682,11 +7682,11 @@
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
         <is>
-          <t>31 Jul 75</t>
+          <t>31 Aug 75</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>10.1739</v>
+        <v>11</v>
       </c>
       <c r="C564" t="n">
         <v>11</v>
@@ -7695,24 +7695,24 @@
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 75</t>
+          <t>31 Jul 75</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>10</v>
+        <v>10.1739</v>
       </c>
       <c r="C565" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>31 May 75</t>
+          <t>30 Jun 75</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>9.9762</v>
+        <v>10</v>
       </c>
       <c r="C566" t="n">
         <v>10</v>
@@ -7721,52 +7721,65 @@
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>30 Apr 75</t>
+          <t>31 May 75</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>9.9091</v>
+        <v>9.9762</v>
       </c>
       <c r="C567" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 75</t>
+          <t>30 Apr 75</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>10.2632</v>
+        <v>9.9091</v>
       </c>
       <c r="C568" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>28 Feb 75</t>
+          <t>31 Mar 75</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>10.6875</v>
+        <v>10.2632</v>
       </c>
       <c r="C569" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
         <is>
+          <t>28 Feb 75</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>10.6875</v>
+      </c>
+      <c r="C570" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
           <t>31 Jan 75</t>
         </is>
       </c>
-      <c r="B570" t="n">
+      <c r="B571" t="n">
         <v>11.3295</v>
       </c>
-      <c r="C570" t="n">
+      <c r="C571" t="n">
         <v>11</v>
       </c>
     </row>
